--- a/medicine/Pharmacie/Sunifiram/Sunifiram.xlsx
+++ b/medicine/Pharmacie/Sunifiram/Sunifiram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sunifiram, noms chimiques 1-(4-benzoyl-1-pipérazinyl)-1-propanone et 1-benzoyl-4-propanoylpiperazine, formule chimique C14H20N2O2, nom de code de développement DM-235 est un médicament expérimental qui a des effets antiamnésiques dans les études animales et avec une puissance significativement plus élevée que le piracétam[1].
-Le sunifiram est une simplification moléculaire de l'unifiram (DM-232)[2]. Un autre analogue est le sapunifirame (MN-19)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunifiram, noms chimiques 1-(4-benzoyl-1-pipérazinyl)-1-propanone et 1-benzoyl-4-propanoylpiperazine, formule chimique C14H20N2O2, nom de code de développement DM-235 est un médicament expérimental qui a des effets antiamnésiques dans les études animales et avec une puissance significativement plus élevée que le piracétam.
+Le sunifiram est une simplification moléculaire de l'unifiram (DM-232). Un autre analogue est le sapunifirame (MN-19).
 En 2016, le sunifiram n'avait été soumis à aucun test toxicologique, ni à aucun essai clinique sur l'homme, et son utilisation médicinale n'est approuvée nulle part dans le monde.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sunifiram stimule la libération et la production d'acétylcholine dans le cerveau. Une étude animale émet l'hypothèse que Sunifiram active les récepteurs AMPA. C'est parce qu'il a été découvert qu'il inversait les effets de plusieurs médicaments qui supprimaient l'activité de l'AMPA. Une étude sur des souris impliquant Sunifiram a révélé activer le neurotransmetteur glutamate.
 </t>
